--- a/image/立体化/フロー.xlsx
+++ b/image/立体化/フロー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ris2006\Desktop\VSproj\BitmapTools\image\立体化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A3C0A7-D618-4FED-8B2D-983B6BAF905C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7722C09E-610E-4D7E-8C10-9415A74E2785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="1485" windowWidth="20460" windowHeight="13275" xr2:uid="{C2122FC4-8435-47A2-AC93-23A4FF6A394A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2122FC4-8435-47A2-AC93-23A4FF6A394A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -5234"/>
+            <a:gd name="adj1" fmla="val -6325"/>
             <a:gd name="adj2" fmla="val 1733333"/>
           </a:avLst>
         </a:prstGeom>
@@ -879,9 +879,11 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900" b="0" u="sng">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -891,9 +893,11 @@
               <a:t>三角形</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" u="sng">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -903,9 +907,11 @@
               <a:t>(AOB)</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900" b="0" u="sng">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -915,9 +921,11 @@
               <a:t>が裏</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" u="sng">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -950,9 +958,11 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900" b="0" u="sng">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -962,9 +972,11 @@
               <a:t>三角形</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0" u="sng">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -974,9 +986,11 @@
               <a:t>(AOB)</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900" b="0" u="sng">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -985,9 +999,11 @@
               </a:rPr>
               <a:t>の中に他の頂点がある</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -1241,13 +1257,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1338,13 +1354,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1783,7 +1799,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>42298</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1808,7 +1824,7 @@
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
             <a:gd name="adj1" fmla="val -40022"/>
-            <a:gd name="adj2" fmla="val 91370"/>
+            <a:gd name="adj2" fmla="val 88767"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1839,13 +1855,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2031,7 +2047,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2088,13 +2104,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>111252</xdr:rowOff>
+      <xdr:rowOff>120777</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2109,7 +2125,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095875" y="10010775"/>
+          <a:off x="5095875" y="10020300"/>
           <a:ext cx="733425" cy="301752"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -2246,13 +2262,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -2269,7 +2285,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4400550" y="5648325"/>
+          <a:off x="4410075" y="5848350"/>
           <a:ext cx="561975" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2331,13 +2347,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>38422</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2355,8 +2371,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4610422" y="3619500"/>
-          <a:ext cx="847403" cy="6372225"/>
+          <a:off x="4610422" y="3819526"/>
+          <a:ext cx="847403" cy="5791199"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2389,14 +2405,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2411,7 +2427,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5372100" y="9991725"/>
+          <a:off x="5372100" y="9610725"/>
           <a:ext cx="171450" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -2458,13 +2474,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>33338</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2482,8 +2498,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457825" y="9772650"/>
-          <a:ext cx="4763" cy="238125"/>
+          <a:off x="5457825" y="9791700"/>
+          <a:ext cx="4763" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3153,13 +3169,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -3176,7 +3192,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4400550" y="3629025"/>
+          <a:off x="4410075" y="3829050"/>
           <a:ext cx="561975" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -3566,13 +3582,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -3589,7 +3605,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4257675" y="1238250"/>
+          <a:off x="4267200" y="1238250"/>
           <a:ext cx="847725" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -3716,7 +3732,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3735,7 +3751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4610422" y="1247775"/>
-          <a:ext cx="933128" cy="8434388"/>
+          <a:ext cx="933128" cy="8453438"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
